--- a/asignaciones/caso_3.xlsx
+++ b/asignaciones/caso_3.xlsx
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
